--- a/subjects/resources/1/it_phys/LR3.xlsx
+++ b/subjects/resources/1/it_phys/LR3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\ИТ в физике\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\1\it_phys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -905,7 +905,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-11C6-4314-8A80-F9748D4C0899}"/>
             </c:ext>
@@ -1749,7 +1749,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
